--- a/Analyza dat.xlsx
+++ b/Analyza dat.xlsx
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -597,6 +597,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -879,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,9 +898,10 @@
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
@@ -917,7 +924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -940,7 +947,7 @@
         <v>1.4909090909090901</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -963,7 +970,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -986,7 +993,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1063,8 +1070,9 @@
       <c r="L7" s="19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1092,11 +1100,11 @@
       <c r="K8" s="12">
         <v>0.90714285699999997</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1124,11 +1132,11 @@
       <c r="K9" s="12">
         <v>0.67047619000000003</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1156,11 +1164,11 @@
       <c r="K10" s="12">
         <v>0.65714285699999997</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1188,11 +1196,11 @@
       <c r="K11" s="12">
         <v>0.610714286</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1220,11 +1228,11 @@
       <c r="K12" s="12">
         <v>0.610714286</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1252,11 +1260,11 @@
       <c r="K13" s="12">
         <v>0.51168831199999998</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1284,11 +1292,11 @@
       <c r="K14" s="12">
         <v>0.34025973999999998</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1316,11 +1324,11 @@
       <c r="K15" s="12">
         <v>0.22857142899999999</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1356,7 @@
       <c r="K16" s="12">
         <v>0.19480519499999999</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1380,7 +1388,7 @@
       <c r="K17" s="12">
         <v>0.123809524</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="25" t="s">
         <v>79</v>
       </c>
     </row>
